--- a/Released/BOM/H0FR9.xlsx
+++ b/Released/BOM/H0FR9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H0FR1x-Hardware\H0FR1\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H0FR9x-Hardware\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4622A170-FB73-48CF-9BA6-FD9BB6318525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4512C741-D78E-4CB0-9F01-91F80868703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2640" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H0FR9" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>Description</t>
   </si>
@@ -399,6 +399,33 @@
   </si>
   <si>
     <t xml:space="preserve">230V 10A(RMS) SPDT Relay (H0FR9) </t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>LED Uni-Color Super Red 639nm 2-Pin Chip 0603(1608Metric) T/R</t>
+  </si>
+  <si>
+    <t>VLMS1300-GS08</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>https://octopart.com/vlms1300-gs08-vishay-21709201?r=sp</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LED Uni-Color Soft Orange 611nm 2-Pin Chip 0603(1608Metric) T/R</t>
+  </si>
+  <si>
+    <t>VLMO1300-GS08</t>
+  </si>
+  <si>
+    <t>https://octopart.com/vlmo1300-gs08-vishay-21709200?r=sp</t>
   </si>
 </sst>
 </file>
@@ -705,7 +732,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2349859</xdr:colOff>
+      <xdr:colOff>2342239</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16192</xdr:rowOff>
     </xdr:to>
@@ -1045,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1431,19 +1458,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F23" s="19">
         <v>1</v>
@@ -1451,19 +1478,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F24" s="19">
         <v>1</v>
@@ -1471,19 +1498,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
@@ -1491,101 +1518,141 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F26" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="F30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F32" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1597,8 +1664,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E30" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E18" r:id="rId5" xr:uid="{01DF3B85-9108-476B-8AD5-F1F39BFC2F9F}"/>
     <hyperlink ref="E15" r:id="rId6" xr:uid="{3D203CC2-EC47-4D3E-807B-7D07EE67CBE3}"/>
@@ -1606,18 +1673,20 @@
     <hyperlink ref="E20" r:id="rId8" xr:uid="{AE63E577-2AF8-4B24-A43D-F4255BA5FD41}"/>
     <hyperlink ref="E12" r:id="rId9" xr:uid="{0A412581-708B-4B43-BCE9-F288010C1F6C}"/>
     <hyperlink ref="E14" r:id="rId10" xr:uid="{F5EB3A57-1482-42EF-95A7-5AF49906AA45}"/>
-    <hyperlink ref="E29" r:id="rId11" xr:uid="{A8C92D79-248B-4F8D-AB5F-5B5A24E8DAA2}"/>
-    <hyperlink ref="E24" r:id="rId12" xr:uid="{B758F3DE-9FBB-472F-96FF-B64DE689E44C}"/>
+    <hyperlink ref="E31" r:id="rId11" xr:uid="{A8C92D79-248B-4F8D-AB5F-5B5A24E8DAA2}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{B758F3DE-9FBB-472F-96FF-B64DE689E44C}"/>
     <hyperlink ref="E9" r:id="rId13" xr:uid="{206CF4EB-3B26-40E4-A288-22B49864D7F0}"/>
     <hyperlink ref="E13" r:id="rId14" xr:uid="{A57804E8-1065-4FCB-B834-B7FA98CF7BC3}"/>
     <hyperlink ref="E17" r:id="rId15" xr:uid="{04F8518D-2E6A-4F3A-8734-4EC9E2493E99}"/>
     <hyperlink ref="E19" r:id="rId16" xr:uid="{E25AC4C9-BD40-4539-8784-B86841FBF719}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{F5FDE03F-A823-4605-834E-B9867CE32248}"/>
-    <hyperlink ref="E26" r:id="rId18" xr:uid="{100AE573-DB1C-4667-86A7-C1CD80E8C357}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{A96FFA30-1060-4909-A3AA-A0DBA18D718E}"/>
+    <hyperlink ref="E27" r:id="rId17" xr:uid="{F5FDE03F-A823-4605-834E-B9867CE32248}"/>
+    <hyperlink ref="E28" r:id="rId18" xr:uid="{100AE573-DB1C-4667-86A7-C1CD80E8C357}"/>
+    <hyperlink ref="E29" r:id="rId19" xr:uid="{A96FFA30-1060-4909-A3AA-A0DBA18D718E}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{423EBDC2-CE52-464A-A27B-5D5FE4F039C1}"/>
+    <hyperlink ref="E24" r:id="rId21" xr:uid="{6A77DB8F-3E6E-4815-86C9-2F6B5A8D1BED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
-  <drawing r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>